--- a/biology/Botanique/Thalassia/Thalassia.xlsx
+++ b/biology/Botanique/Thalassia/Thalassia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thalassia est un genre d'herbes marines, plantes monocotylédones sous-marines de la famille des
 Hydrocharitaceae.
-Le nom générique Thalassia, du grec thalassa (« mer ») et du suffixe latin -ia (« relatif à »)[2],
-[3], désigne une plante marine.
+Le nom générique Thalassia, du grec thalassa (« mer ») et du suffixe latin -ia (« relatif à »),
+, désigne une plante marine.
 </t>
         </is>
       </c>
@@ -514,9 +526,11 @@
           <t>Caractéristiques générales</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des plantes marines herbacées, vivaces, appartenant à la famille des Hydrocharitaceae, dont les feuilles se caractérisent par un absence de ligule à leur base[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des plantes marines herbacées, vivaces, appartenant à la famille des Hydrocharitaceae, dont les feuilles se caractérisent par un absence de ligule à leur base.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Selon ITIS et WORMS :
 Thalassia hemprichii (Ehrenb. ex Solms) Asch., 1871
@@ -577,7 +593,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Thalassia hemprichii
 Schizotheca hemprichii Ehrenb. ex Solms, 1832
@@ -610,11 +628,13 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Thalassia hemprichii est largement répandue sur les côtes orientales  d'Afrique, jusqu'à l'océan Indien ; les Îles Ryūkyū ; le Queensland (Australie) et l'est des États fédérés de Micronésie.
-Elle est aussi très fréquente à Singapour[5].
-Thalassia testudinum est largement répandue dans la partie ouest tropical de l'océan Atlantique, depuis le Venezuela jusqu'à cap Canaveral (Floride), ainsi qu'aux Bermudes[4].
+Elle est aussi très fréquente à Singapour.
+Thalassia testudinum est largement répandue dans la partie ouest tropical de l'océan Atlantique, depuis le Venezuela jusqu'à cap Canaveral (Floride), ainsi qu'aux Bermudes.
 </t>
         </is>
       </c>
@@ -644,6 +664,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
